--- a/HGS/MELDUNGEN/CONFIG/MASTER/EXCEL_DATEN/DATA_Schichtreport.xlsx
+++ b/HGS/MELDUNGEN/CONFIG/MASTER/EXCEL_DATEN/DATA_Schichtreport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Testtools\HGS\MELDUNGEN\CONFIG\MASTER\EXCEL_DATEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5608735-2A18-4351-A44A-C982B835348F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B94E0E-C00F-4617-B361-F6DEBEA3BDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{1661E627-2DA5-4C0E-87ED-BE135CBB724D}"/>
+    <workbookView xWindow="33690" yWindow="3375" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{1661E627-2DA5-4C0E-87ED-BE135CBB724D}"/>
   </bookViews>
   <sheets>
     <sheet name="Stoerbetrag" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Test</t>
   </si>
@@ -66,6 +66,39 @@
   </si>
   <si>
     <t>Schicht_GL_WGR1_start</t>
+  </si>
+  <si>
+    <t>Schicht_GL_komplett</t>
+  </si>
+  <si>
+    <t>Vervollständigt</t>
+  </si>
+  <si>
+    <t>Schicht_GL_WGR2</t>
+  </si>
+  <si>
+    <t>Schicht_GL_ZGS1</t>
+  </si>
+  <si>
+    <t>Schicht_GL_WGR3</t>
+  </si>
+  <si>
+    <t>Schicht_GL_BEK0</t>
+  </si>
+  <si>
+    <t>Schicht_GL_ZGS2</t>
+  </si>
+  <si>
+    <t>Schicht_GL_WGR5</t>
+  </si>
+  <si>
+    <t>Schicht_GL_WGR4</t>
+  </si>
+  <si>
+    <t>Schicht_GL_BEK1</t>
+  </si>
+  <si>
+    <t>Schicht_GL_ZGS3</t>
   </si>
 </sst>
 </file>
@@ -638,13 +671,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F14409-9669-483F-924C-BE6AB9D96A6E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -656,14 +692,91 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
